--- a/CS550/_Marks.xlsx
+++ b/CS550/_Marks.xlsx
@@ -602,7 +602,7 @@
   <dimension ref="A1:BX12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -748,7 +748,9 @@
       <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7">
+        <v>6</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -758,7 +760,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:76" ht="20.100000000000001" customHeight="1">
@@ -796,7 +798,9 @@
       <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9">
+        <v>6</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -806,7 +810,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:76" ht="20.100000000000001" customHeight="1">
@@ -989,7 +993,7 @@
   <dimension ref="A1:BU12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1112,7 +1116,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7">
-        <f>SUM(D2:I2)</f>
+        <f t="shared" ref="J2:J12" si="0">SUM(D2:I2)</f>
         <v>0</v>
       </c>
     </row>
@@ -1126,15 +1130,27 @@
       <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
       <c r="J3" s="7">
-        <f>SUM(D3:I3)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:73" ht="20.100000000000001" customHeight="1">
@@ -1166,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="7">
-        <f>SUM(D4:I4)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1180,15 +1196,27 @@
       <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
       <c r="J5" s="7">
-        <f>SUM(D5:I5)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:73" ht="20.100000000000001" customHeight="1">
@@ -1220,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="7">
-        <f>SUM(D6:I6)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1241,7 +1269,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="7">
-        <f>SUM(D7:I7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1274,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="7">
-        <f>SUM(D8:I8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1295,7 +1323,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="7">
-        <f>SUM(D9:I9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1316,7 +1344,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="7">
-        <f>SUM(D10:I10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1349,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="7">
-        <f>SUM(D11:I11)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1382,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="7">
-        <f>SUM(D12:I12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1838,7 +1866,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7">
-        <f>SUM(D2:I2)</f>
+        <f t="shared" ref="J2:J12" si="0">SUM(D2:I2)</f>
         <v>0</v>
       </c>
     </row>
@@ -1859,7 +1887,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7">
-        <f>SUM(D3:I3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1880,7 +1908,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="7">
-        <f>SUM(D4:I4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1901,7 +1929,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="7">
-        <f>SUM(D5:I5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1922,7 +1950,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="7">
-        <f>SUM(D6:I6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1943,7 +1971,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="7">
-        <f>SUM(D7:I7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1964,7 +1992,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="7">
-        <f>SUM(D8:I8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1985,7 +2013,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="7">
-        <f>SUM(D9:I9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2006,7 +2034,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="7">
-        <f>SUM(D10:I10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2027,7 +2055,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="7">
-        <f>SUM(D11:I11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2048,7 +2076,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7">
-        <f>SUM(D12:I12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2185,7 +2213,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7">
-        <f>SUM(D2:I2)</f>
+        <f t="shared" ref="J2:J12" si="0">SUM(D2:I2)</f>
         <v>0</v>
       </c>
     </row>
@@ -2206,7 +2234,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7">
-        <f>SUM(D3:I3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2227,7 +2255,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="7">
-        <f>SUM(D4:I4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2248,7 +2276,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="7">
-        <f>SUM(D5:I5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2269,7 +2297,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="7">
-        <f>SUM(D6:I6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2290,7 +2318,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="7">
-        <f>SUM(D7:I7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2311,7 +2339,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="7">
-        <f>SUM(D8:I8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2332,7 +2360,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="7">
-        <f>SUM(D9:I9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2353,7 +2381,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="7">
-        <f>SUM(D10:I10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2374,7 +2402,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="7">
-        <f>SUM(D11:I11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2395,7 +2423,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7">
-        <f>SUM(D12:I12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2851,7 +2879,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7">
-        <f>SUM(D2:I2)</f>
+        <f t="shared" ref="J2:J12" si="0">SUM(D2:I2)</f>
         <v>0</v>
       </c>
     </row>
@@ -2872,7 +2900,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7">
-        <f>SUM(D3:I3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2893,7 +2921,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="7">
-        <f>SUM(D4:I4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2914,7 +2942,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="7">
-        <f>SUM(D5:I5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2935,7 +2963,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="7">
-        <f>SUM(D6:I6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2956,7 +2984,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="7">
-        <f>SUM(D7:I7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2977,7 +3005,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="7">
-        <f>SUM(D8:I8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2998,7 +3026,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="7">
-        <f>SUM(D9:I9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3019,7 +3047,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="7">
-        <f>SUM(D10:I10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3040,7 +3068,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="7">
-        <f>SUM(D11:I11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3061,7 +3089,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7">
-        <f>SUM(D12:I12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3198,7 +3226,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7">
-        <f>SUM(D2:I2)</f>
+        <f t="shared" ref="J2:J12" si="0">SUM(D2:I2)</f>
         <v>0</v>
       </c>
     </row>
@@ -3219,7 +3247,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7">
-        <f>SUM(D3:I3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3240,7 +3268,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="7">
-        <f>SUM(D4:I4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3261,7 +3289,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="7">
-        <f>SUM(D5:I5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3282,7 +3310,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="7">
-        <f>SUM(D6:I6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3303,7 +3331,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="7">
-        <f>SUM(D7:I7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3324,7 +3352,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="7">
-        <f>SUM(D8:I8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3345,7 +3373,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="7">
-        <f>SUM(D9:I9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3366,7 +3394,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="7">
-        <f>SUM(D10:I10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3387,7 +3415,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="7">
-        <f>SUM(D11:I11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3408,7 +3436,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7">
-        <f>SUM(D12:I12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3545,7 +3573,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7">
-        <f>SUM(D2:I2)</f>
+        <f t="shared" ref="J2:J12" si="0">SUM(D2:I2)</f>
         <v>0</v>
       </c>
     </row>
@@ -3566,7 +3594,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7">
-        <f>SUM(D3:I3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3587,7 +3615,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="7">
-        <f>SUM(D4:I4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3608,7 +3636,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="7">
-        <f>SUM(D5:I5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3629,7 +3657,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="7">
-        <f>SUM(D6:I6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3650,7 +3678,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="7">
-        <f>SUM(D7:I7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3671,7 +3699,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="7">
-        <f>SUM(D8:I8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3692,7 +3720,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="7">
-        <f>SUM(D9:I9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3713,7 +3741,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="7">
-        <f>SUM(D10:I10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3734,7 +3762,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="7">
-        <f>SUM(D11:I11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3755,7 +3783,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7">
-        <f>SUM(D12:I12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/CS550/_Marks.xlsx
+++ b/CS550/_Marks.xlsx
@@ -194,7 +194,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +216,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,6 +289,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,7 +611,7 @@
   <dimension ref="A1:BX12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -725,7 +734,9 @@
       <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="13">
+        <v>4</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -735,7 +746,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L12" si="0">SUM(D2:K2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:76" ht="20.100000000000001" customHeight="1">
@@ -848,7 +859,9 @@
       <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9">
+        <v>6</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -858,7 +871,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:76" ht="20.100000000000001" customHeight="1">
@@ -919,7 +932,9 @@
       <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="13">
+        <v>4</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -929,7 +944,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:76" ht="20.100000000000001" customHeight="1">
@@ -993,7 +1008,7 @@
   <dimension ref="A1:BU12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1109,15 +1124,27 @@
       <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>1</v>
+      </c>
       <c r="J2" s="7">
         <f t="shared" ref="J2:J12" si="0">SUM(D2:I2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:73" ht="20.100000000000001" customHeight="1">
@@ -1262,15 +1289,27 @@
       <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
       <c r="J7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:73" ht="20.100000000000001" customHeight="1">
@@ -1337,15 +1376,27 @@
       <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
       <c r="J10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:73" ht="20.100000000000001" customHeight="1">

--- a/CS550/_Marks.xlsx
+++ b/CS550/_Marks.xlsx
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,6 +293,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,7 +617,7 @@
   <dimension ref="A1:BX12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -737,7 +743,10 @@
       <c r="D2" s="13">
         <v>4</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7">
+        <f>'ME1'!H2</f>
+        <v>14</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -746,7 +755,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L12" si="0">SUM(D2:K2)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:76" ht="20.100000000000001" customHeight="1">
@@ -762,7 +771,10 @@
       <c r="D3" s="7">
         <v>6</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <f>'ME1'!H3</f>
+        <v>14</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -771,7 +783,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:76" ht="20.100000000000001" customHeight="1">
@@ -787,7 +799,10 @@
       <c r="D4" s="9">
         <v>6</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="7">
+        <f>'ME1'!H4</f>
+        <v>16</v>
+      </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -796,7 +811,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:76" ht="20.100000000000001" customHeight="1">
@@ -812,7 +827,10 @@
       <c r="D5" s="9">
         <v>6</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="7">
+        <f>'ME1'!H5</f>
+        <v>19</v>
+      </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -821,7 +839,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:76" ht="20.100000000000001" customHeight="1">
@@ -837,7 +855,10 @@
       <c r="D6" s="9">
         <v>6</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="7">
+        <f>'ME1'!H6</f>
+        <v>19</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -846,7 +867,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:76" ht="20.100000000000001" customHeight="1">
@@ -862,7 +883,10 @@
       <c r="D7" s="9">
         <v>6</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="7">
+        <f>'ME1'!H7</f>
+        <v>19</v>
+      </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -871,7 +895,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:76" ht="20.100000000000001" customHeight="1">
@@ -887,7 +911,10 @@
       <c r="D8" s="9">
         <v>6</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="7">
+        <f>'ME1'!H8</f>
+        <v>19</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -896,28 +923,31 @@
       <c r="K8" s="9"/>
       <c r="L8" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:76" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="10">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="7">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
+        <f>'ME1'!H9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -935,7 +965,10 @@
       <c r="D10" s="13">
         <v>4</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="7">
+        <f>'ME1'!H10</f>
+        <v>19</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -944,7 +977,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:76" ht="20.100000000000001" customHeight="1">
@@ -960,7 +993,10 @@
       <c r="D11" s="9">
         <v>6</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="7">
+        <f>'ME1'!H11</f>
+        <v>18</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -969,7 +1005,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:76" ht="20.100000000000001" customHeight="1">
@@ -985,7 +1021,10 @@
       <c r="D12" s="7">
         <v>6</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7">
+        <f>'ME1'!H12</f>
+        <v>16</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -994,7 +1033,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1008,7 +1047,7 @@
   <dimension ref="A1:BU12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1475,7 +1514,7 @@
   <dimension ref="A1:BS12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="H2" sqref="H2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1585,13 +1624,21 @@
       <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="7">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
       <c r="H2" s="7">
         <f t="shared" ref="H2:H12" si="0">SUM(B2:G2)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:71" ht="20.100000000000001" customHeight="1">
@@ -1604,13 +1651,21 @@
       <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="7">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
       <c r="H3" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:71" ht="20.100000000000001" customHeight="1">
@@ -1623,13 +1678,21 @@
       <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="D4" s="9">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
       <c r="H4" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:71" ht="20.100000000000001" customHeight="1">
@@ -1642,13 +1705,21 @@
       <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
       <c r="H5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:71" ht="20.100000000000001" customHeight="1">
@@ -1661,13 +1732,21 @@
       <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
       <c r="H6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:71" ht="20.100000000000001" customHeight="1">
@@ -1680,13 +1759,21 @@
       <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="D7" s="9">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:71" ht="20.100000000000001" customHeight="1">
@@ -1699,13 +1786,21 @@
       <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>5</v>
+      </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:71" ht="20.100000000000001" customHeight="1">
@@ -1718,10 +1813,18 @@
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1737,13 +1840,21 @@
       <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="D10" s="9">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4</v>
+      </c>
+      <c r="F10" s="9">
+        <v>5</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:71" ht="20.100000000000001" customHeight="1">
@@ -1756,13 +1867,21 @@
       <c r="C11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="D11" s="9">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9">
+        <v>5</v>
+      </c>
       <c r="H11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B11:G11)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:71" ht="20.100000000000001" customHeight="1">
@@ -1775,13 +1894,21 @@
       <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="D12" s="7">
+        <v>4</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7">
+        <v>5</v>
+      </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/CS550/_Marks.xlsx
+++ b/CS550/_Marks.xlsx
@@ -617,7 +617,7 @@
   <dimension ref="A1:BX12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -740,7 +740,8 @@
       <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="9">
+        <f>'HW1'!J2</f>
         <v>4</v>
       </c>
       <c r="E2" s="7">
@@ -768,7 +769,8 @@
       <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
+        <f>'HW1'!J3</f>
         <v>6</v>
       </c>
       <c r="E3" s="7">
@@ -797,6 +799,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="9">
+        <f>'HW1'!J4</f>
         <v>6</v>
       </c>
       <c r="E4" s="7">
@@ -825,6 +828,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="9">
+        <f>'HW1'!J5</f>
         <v>6</v>
       </c>
       <c r="E5" s="7">
@@ -853,6 +857,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="9">
+        <f>'HW1'!J6</f>
         <v>6</v>
       </c>
       <c r="E6" s="7">
@@ -881,6 +886,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="9">
+        <f>'HW1'!J7</f>
         <v>6</v>
       </c>
       <c r="E7" s="7">
@@ -909,6 +915,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="9">
+        <f>'HW1'!J8</f>
         <v>6</v>
       </c>
       <c r="E8" s="7">
@@ -936,7 +943,10 @@
       <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12">
+        <f>'HW1'!J9</f>
+        <v>0</v>
+      </c>
       <c r="E9" s="12">
         <f>'ME1'!H9</f>
         <v>0</v>
@@ -962,7 +972,8 @@
       <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
+        <f>'HW1'!J10</f>
         <v>4</v>
       </c>
       <c r="E10" s="7">
@@ -991,11 +1002,12 @@
         <v>16</v>
       </c>
       <c r="D11" s="9">
+        <f>'HW1'!J11</f>
         <v>6</v>
       </c>
       <c r="E11" s="7">
         <f>'ME1'!H11</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -1005,7 +1017,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="7">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:76" ht="20.100000000000001" customHeight="1">
@@ -1018,7 +1030,8 @@
       <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
+        <f>'HW1'!J12</f>
         <v>6</v>
       </c>
       <c r="E12" s="7">
@@ -1047,7 +1060,7 @@
   <dimension ref="A1:BU12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D10" sqref="D10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1514,7 +1527,7 @@
   <dimension ref="A1:BS12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1871,7 +1884,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="9">
         <v>5</v>
@@ -1881,7 +1894,7 @@
       </c>
       <c r="H11" s="7">
         <f>SUM(B11:G11)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:71" ht="20.100000000000001" customHeight="1">
